--- a/biology/Histoire de la zoologie et de la botanique/Chronologie_de_l'entomologie/Chronologie_de_l'entomologie.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Chronologie_de_l'entomologie/Chronologie_de_l'entomologie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Chronologie_de_l%27entomologie</t>
+          <t>Chronologie_de_l'entomologie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -481,6 +491,8 @@
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -488,7 +500,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Chronologie_de_l%27entomologie</t>
+          <t>Chronologie_de_l'entomologie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -506,7 +518,9 @@
           <t>Préhistoire et antiquité</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>La plus ancienne représentation d'insecte connue montre une silhouette récoltant du miel et a été découverte dans une grotte d’Espagne.
 Le bousier joue un grand rôle dans la religion des anciens Égyptiens, tant dans l'art funéraire que dans la religion. Il constitue une boulette d'excrément qu'il enterre et sur laquelle grandira une larve. Son comportement en fait l'image même de la transformation, du renouveau et de la résurrection.
@@ -521,7 +535,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Chronologie_de_l%27entomologie</t>
+          <t>Chronologie_de_l'entomologie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -539,7 +553,9 @@
           <t>Moyen Âge</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Isidore de Séville (VIe siècle) traite des insectes dans ses Etymologiæ.
 Albert le Grand (1193/1206-1280) s'intéresse beaucoup aux insectes.</t>
@@ -552,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Chronologie_de_l%27entomologie</t>
+          <t>Chronologie_de_l'entomologie</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -570,7 +586,9 @@
           <t>XVIe siècle</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>1565 : La mort de Conrad Gessner (1516-1565) l'empêche d'achever la partie consacrée aux insectes dans son immense Historia animalium. Celle-ci ne sera publiée que bien plus tard sous le titre de Insectorum sive minimorum animalium theatrum.</t>
         </is>
@@ -582,7 +600,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Chronologie_de_l%27entomologie</t>
+          <t>Chronologie_de_l'entomologie</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -600,7 +618,9 @@
           <t>XVIIe siècle</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 1602 : Ulisse Aldrovandi (1522-1605) fait paraître son De animalibus insectis libri septem, cum singulorum iconibus ad vivum expressis consacré aux insectes et à quelques autres invertébrés.
@@ -616,7 +636,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Chronologie_de_l%27entomologie</t>
+          <t>Chronologie_de_l'entomologie</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -634,7 +654,9 @@
           <t>XVIIIe siècle</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>1710 : François Xavier Bon de Saint Hilaire (1678-1761) fait paraître un mémoire sur l'utilisation de la soie d'araignée comme fibre textile, première recherche scientifique de cette nature. René-Antoine Ferchault de Réaumur (1683-1757) démontre la même année le faible intérêt économique d'une telle production.
 1734 : Réaumur fait paraître le premier tome de ses Mémoires pour servir à l'Histoire des Insectes, l'un des plus grands ouvrages sur ces animaux du XVIIIe siècle.
@@ -656,7 +678,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Chronologie_de_l%27entomologie</t>
+          <t>Chronologie_de_l'entomologie</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -674,7 +696,9 @@
           <t>XIXe siècle</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>1800 : Le nombre total d'espèces d'insectes est estimé ne pas dépasser le chiffre de 20 000.
 1801 : Jean-Baptiste de Lamarck (1744-1829) distingue définitivement les crustacés des autres arthropodes, séparation acceptée par Georges Cuvier (1769-1832).
@@ -708,7 +732,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Chronologie_de_l%27entomologie</t>
+          <t>Chronologie_de_l'entomologie</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -726,7 +750,9 @@
           <t>XXe siècle</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">1907 : Fin de la parution des Souvenirs entomologiques de Jean-Henri Fabre (1823-1915) - Musée virtuel Jean-Henri Fabre.
 1909 : Fondation du Journal of Entomology à l'instigation de Charles Fuller Baker, l'une des premières revues scientifiques consacrées à l'entomologie économique.
